--- a/used_model/LGBM/min/result.xlsx
+++ b/used_model/LGBM/min/result.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,40 +501,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['ADX_window_7_2', 'CCI_window_10', 'operating_margin', 'roa', 'asset', 'net_profit_margin', 'EMA_window_9', 'ADX_window_14_0', 'pre_tax_profit', 'price_to_earning']</t>
+          <t>['cash_ratio', 'ADX_window_7_2', 'TRIX_window_10', 'price_to_earning', 'CCI_window_10', 'earning_per_share', 'capital', 'invest_cost', 'DPO_window_10', 'from_invest']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'n_estimators': 404, 'learning_rate': 0.07089303761445828, 'num_leaves': 60, 'max_depth': 49, 'min_child_samples': 50, 'subsample': 0.5759254732466363, 'colsample_bytree': 0.5692638586475725}</t>
+          <t>{'n_estimators': 481, 'learning_rate': 0.09962556361388712, 'num_leaves': 126, 'max_depth': 49, 'min_child_samples': 45, 'subsample': 0.769770186562946, 'colsample_bytree': 0.7172284094404335}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.104875501755179</v>
+        <v>7.717939730008515</v>
       </c>
       <c r="E2" t="n">
-        <v>110.9425444215977</v>
+        <v>447.6946474999453</v>
       </c>
       <c r="F2" t="n">
-        <v>52.70741396775567</v>
+        <v>58.00701523480948</v>
       </c>
       <c r="G2" t="n">
-        <v>3.003349609131765</v>
+        <v>13.31746665361252</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2019707708385177</v>
+        <v>0.06827631841819427</v>
       </c>
       <c r="I2" t="n">
-        <v>44.64176362522964</v>
+        <v>10.01348617666891</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02209256750951434</v>
+        <v>0.005825669506578796</v>
       </c>
       <c r="K2" t="n">
-        <v>-43.55030524062461</v>
+        <v>-26.3306364722705</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9999885747478395</v>
+        <v>0.8275708689766672</v>
       </c>
     </row>
     <row r="3">
@@ -543,82 +543,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['roa', 'earning_per_share', 'capital', 'share_holder_income', 'from_financial', 'post_tax_profit', 'operating_margin', 'fixed_asset', 'asset_turnover_ratio', 'pre_tax_profit']</t>
+          <t>['TRIX_window_10', 'CCI_window_10', 'ADX_window_7_2', 'cash_ratio', 'net_profit_margin', 'capital', 'ADX_window_14_1', 'invest_cost', 'ADX_window_7_0', 'un_distributed_income']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'n_estimators': 247, 'learning_rate': 0.025491366635207333, 'num_leaves': 138, 'max_depth': 8, 'min_child_samples': 67, 'subsample': 0.5281073475031648, 'colsample_bytree': 0.6897680385053797}</t>
+          <t>{'n_estimators': 775, 'learning_rate': 0.08905989406264611, 'num_leaves': 66, 'max_depth': 33, 'min_child_samples': 84, 'subsample': 0.6536540017727496, 'colsample_bytree': 0.6746960189280744}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.2027407086617205</v>
+        <v>14.79606891442368</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.769410260328659</v>
+        <v>942.9094272185241</v>
       </c>
       <c r="F3" t="n">
-        <v>43.25431393731935</v>
+        <v>63.72702321623726</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2470512699791662</v>
+        <v>27.15188065723923</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0101662534898315</v>
+        <v>0.05421013632707022</v>
       </c>
       <c r="I3" t="n">
-        <v>42.85714285714285</v>
+        <v>14.03762010013984</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05330142087199446</v>
+        <v>0.008310088613078739</v>
       </c>
       <c r="K3" t="n">
-        <v>-59.85290036081048</v>
+        <v>-24.22302079930311</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6079780028057653</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['Mass Index_window_fast_9', 'operation_profit', 'from_invest', 'operating_margin', 'fixed_asset', 'price_to_earning', 'equity', 'earnings_yield', 'EMA_window_9', 'ADX_window_7_1']</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'n_estimators': 406, 'learning_rate': 0.08262297400361483, 'num_leaves': 107, 'max_depth': 44, 'min_child_samples': 75, 'subsample': 0.7105987414965926, 'colsample_bytree': 0.6861155023385856}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10.11895374101236</v>
-      </c>
-      <c r="E4" t="n">
-        <v>617.4460749505955</v>
-      </c>
-      <c r="F4" t="n">
-        <v>61.01876644104733</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16.30279076954624</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0558496743657542</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47.15733803437638</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.02345410569290189</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-35.24576271186437</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16.88295164740765</v>
+        <v>0.5922632912054284</v>
       </c>
     </row>
   </sheetData>
